--- a/Project4285_P. Jaloszynski(2022).xlsx
+++ b/Project4285_P. Jaloszynski(2022).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2BA760-E37A-C04D-9018-8F83A051AD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D705F-3925-43DD-B236-8A811BAB968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="15870" windowHeight="18585" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4285" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="166">
   <si>
     <t>Charlabels</t>
   </si>
@@ -982,17 +982,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1920,12 +1920,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
